--- a/Documentation/Working_Documents/Spoon_Stabilizer_Support_BOM.xlsx
+++ b/Documentation/Working_Documents/Spoon_Stabilizer_Support_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Fork-Spoon Stabilizer Support/spoonfork-stabilizer/spoon-stabilizer-support/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Spoon_Stabilizer_Support/spoon-stabilizer-support/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BEC4C7-3798-4ACE-8709-290A38A2E1EB}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9D3D076-7953-4A06-B20C-6DC61CBCEAAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Total Cost</t>
   </si>
@@ -62,12 +62,6 @@
     </r>
   </si>
   <si>
-    <t>Commercial Parts:</t>
-  </si>
-  <si>
-    <t>Part type (Electrical. Mechanical, Sanitization, ect)</t>
-  </si>
-  <si>
     <t>Part Name</t>
   </si>
   <si>
@@ -119,42 +113,21 @@
     <t>Part and description</t>
   </si>
   <si>
-    <t>Date Created: 2/14/2023</t>
-  </si>
-  <si>
     <t>Mechanical</t>
   </si>
   <si>
-    <t>Bearings</t>
-  </si>
-  <si>
     <t>Computer Case Screws</t>
   </si>
   <si>
     <t>Fishing Weights</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/gp/product/B07XLV1W2M/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/gp/product/B07TXS98L6/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/gp/product/B0B1JBJ91F/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t>Grip Handle</t>
   </si>
   <si>
     <t>Grip Insert</t>
   </si>
   <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>spoon attachment</t>
-  </si>
-  <si>
     <t>Main Handle</t>
   </si>
   <si>
@@ -173,7 +146,37 @@
     <t>Spoon</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Winco-0005-03-12-Piece-Dinner-Stainless/dp/B004UNF2II/ref=sr_1_6?crid=UG9E7GL37E33&amp;keywords=spoon&amp;qid=1676677218&amp;sprefix=spoon%2Caps%2C147&amp;sr=8-6</t>
+    <t>https://www.amazon.ca/gp/product/B07XLV1W2M</t>
+  </si>
+  <si>
+    <t>Commercial Parts</t>
+  </si>
+  <si>
+    <t>Part type (Electrical, Mechanical, Sanitization, etc)</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Spoon attachment</t>
+  </si>
+  <si>
+    <t>Bearing, 608-ZZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B07TXS98L6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B0B1JBJ91F</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Winco-0005-03-12-Piece-Dinner-Stainless/dp/B004UNF2II</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Last Updated: 2025-Dec-02</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -506,6 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -791,30 +795,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -825,17 +829,20 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5">
-        <f>SUM(G5:G12)+E19</f>
-        <v>6.9478333333333335</v>
+        <f>SUM(E5:E12)+E19</f>
+        <v>50.425000000000004</v>
       </c>
       <c r="D2" s="24">
         <f>SUM(F14:F18)/60</f>
@@ -845,47 +852,51 @@
         <f>SUM(D14:D18)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="32">
+        <f>F5+F6+F7+F8+E19</f>
+        <v>5.5488333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -905,15 +916,15 @@
         <v>1.155</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -933,15 +944,15 @@
         <v>0.9890000000000001</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -961,15 +972,15 @@
         <v>2.798</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -989,21 +1000,21 @@
         <v>1.1808333333333334</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="28">
         <v>25</v>
@@ -1013,35 +1024,35 @@
       <c r="G12" s="23"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="E13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1058,12 +1069,12 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1080,12 +1091,12 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1102,12 +1113,12 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1124,17 +1135,17 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="D19" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="21">
         <f>SUM(E14:E18)</f>
@@ -1142,9 +1153,9 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1158,46 +1169,48 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>12</v>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{FE12AF5F-AFA9-44D1-B1CC-9F166215A377}"/>
     <hyperlink ref="I8" r:id="rId2" xr:uid="{D6F5C66C-E02E-4867-9DA1-33C9404F69C6}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{0F23B5C8-58FE-46F2-B3D6-64BA94B87E06}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{109C74DB-E580-456B-B97B-8749C5F28CB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -1205,19 +1218,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d27786a72e09a52c769a64d5f7eeaa24">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03ae89856d271009074f70b56337b48d" ns2:_="" ns3:_="">
-    <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
-    <xsd:import namespace="38b325e6-602c-452a-8617-173bf47082c5"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98db258ff80432777e1449e61201997a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35a178bf703ca761fa2cab6c9a8e0e75" ns2:_="" ns3:_="">
+    <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1226,18 +1230,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1245,7 +1249,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8cf100d1-0775-4feb-8634-62999c4541bc" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1258,12 +1262,12 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1280,66 +1284,50 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="38b325e6-602c-452a-8617-173bf47082c5" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="715913e6-4bf0-458f-8160-f18e142d04ff" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{fa4f962d-b49e-4e9c-aab6-6f9508495272}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="38b325e6-602c-452a-8617-173bf47082c5">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b05470fb-f248-421d-a4ae-c1bb0b45488d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="715913e6-4bf0-458f-8160-f18e142d04ff">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -1450,6 +1438,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
@@ -1462,28 +1459,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0990AE-FB73-4524-9F30-8ED103D141E1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BECD52-63A8-454F-82E6-6195B786F95C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
-    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>